--- a/mbs-perturbation/bloated/knn/smote/bloated-knn-smote-results.xlsx
+++ b/mbs-perturbation/bloated/knn/smote/bloated-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.995475113122172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7876447876447877</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="E2" t="n">
-        <v>0.810139022542536</v>
+        <v>0.7008763129338056</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7976653696498055</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.990909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8595387840670858</v>
+        <v>0.9732142857142858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9502365281777047</v>
+        <v>0.9888728918140683</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9363636363636364</v>
+        <v>0.9388646288209607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9363636363636364</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9363636363636364</v>
+        <v>0.957683741648107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9716063348416291</v>
+        <v>0.9690662278897573</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8723404255319149</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9276018099547512</v>
+        <v>0.9909502262443439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8991228070175439</v>
+        <v>0.9954545454545455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9591834635952282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9095022624434389</v>
+        <v>0.9864253393665159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9503546099290781</v>
+        <v>0.9931662870159453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9889140271493213</v>
+        <v>0.9999897161661868</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8576575246729078</v>
+        <v>0.9029446579114616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9256725627313864</v>
+        <v>0.9882064993829701</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8866049250044263</v>
+        <v>0.9366815497443545</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9360158752612839</v>
+        <v>0.9317610297607637</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/knn/smote/bloated-knn-smote-results.xlsx
+++ b/mbs-perturbation/bloated/knn/smote/bloated-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6197183098591549</v>
+        <v>0.6300940438871473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.995475113122172</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.773076923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7008763129338056</v>
+        <v>0.7238805970149254</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.990909090909091</v>
+        <v>0.9651741293532339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9732142857142858</v>
+        <v>0.9773299748110832</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9888728918140683</v>
+        <v>0.9918442612806613</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9388646288209607</v>
+        <v>0.9556650246305419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9651741293532339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.957683741648107</v>
+        <v>0.9603960396039605</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9690662278897573</v>
+        <v>0.979975743174674</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9909502262443439</v>
+        <v>0.975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9954545454545455</v>
+        <v>0.9873417721518987</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9864253393665159</v>
+        <v>0.9651741293532339</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9931662870159453</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999897161661868</v>
+        <v>0.9972636815920398</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9029446579114616</v>
+        <v>0.9140853563513662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9882064993829701</v>
+        <v>0.9741044776119404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9366815497443545</v>
+        <v>0.9355885378883689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9317610297607637</v>
+        <v>0.9375928566124602</v>
       </c>
     </row>
   </sheetData>
